--- a/test-data/footer-data.xlsx
+++ b/test-data/footer-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cgov_workspace\cgov-digital-platform-qa\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7F70E-5A5A-45AA-8262-BB819EA5B8A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64CECE5-8772-6A45-8A25-08EA8B31A8F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6860" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26760" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_footer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>path</t>
   </si>
@@ -48,12 +48,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>/espanol/node/46</t>
-  </si>
-  <si>
-    <t>/node/36</t>
-  </si>
-  <si>
     <t>Cancer Center</t>
   </si>
   <si>
@@ -82,14 +76,28 @@
   </si>
   <si>
     <t>Blog Page</t>
+  </si>
+  <si>
+    <t>espanol/noticias/comunicados-de-prensa/2018/oropharyngeal-hpv-cisplatin</t>
+  </si>
+  <si>
+    <t>annual-report-nation-2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,12 +127,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,124 +450,118 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.58203125" customWidth="1"/>
-    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-data/footer-data.xlsx
+++ b/test-data/footer-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64CECE5-8772-6A45-8A25-08EA8B31A8F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91EF5D8-73BD-054E-A51E-E9B01F9718BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26760" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,13 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -447,26 +444,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="87.1640625" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -557,11 +554,6 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
